--- a/potentials/smatb/generate_simple_mixing_potential.xlsx
+++ b/potentials/smatb/generate_simple_mixing_potential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCFDE8E-5E5E-40BC-BE77-33E8D150BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37938C12-06B3-4E7A-996E-4D8036BE6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="255" windowWidth="21240" windowHeight="14955" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>pair_coeff 1 1</t>
   </si>
@@ -154,6 +154,28 @@
   </si>
   <si>
     <t>R0 = p(A-B)/((p(A)/R0(A)+p(B)/R0(B))/2)= q(A-B)/((q(A)/R0(A)+q(B)/R0(B))/2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;- using "R0 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q(A-B)/((q(A)/R0(A)+q(B)/R0(B))/2)"</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -164,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +206,15 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -344,13 +375,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,16 +441,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C1554-5646-4BD1-B39C-E819901EC83D}">
-  <dimension ref="B1:M24"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -736,6 +784,7 @@
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
@@ -762,15 +811,6 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
       <c r="L4" s="4"/>
       <c r="M4" t="s">
         <v>3</v>
@@ -813,11 +853,6 @@
       <c r="M5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
@@ -838,15 +873,6 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
       <c r="L8" s="4"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -889,11 +915,6 @@
       <c r="M9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
@@ -914,29 +935,27 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
       <c r="L12" s="4"/>
       <c r="M12" t="s">
         <v>4</v>
@@ -959,11 +978,11 @@
         <v>2.1992799999999999</v>
       </c>
       <c r="F13" s="12">
-        <f>C15*SQRT(F5*F9)</f>
+        <f>C16*SQRT(F5*F9)</f>
         <v>0.50520367051319015</v>
       </c>
       <c r="G13" s="12">
-        <f>C16*SQRT(G5*G9)</f>
+        <f>C17*SQRT(G5*G9)</f>
         <v>4.2280123055875798</v>
       </c>
       <c r="H13" s="12">
@@ -989,60 +1008,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19">
+        <f>E13/((E5/C5+E9/C9)/2)</f>
+        <v>2.6143194710305253</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C16" s="15">
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
     </row>

--- a/potentials/smatb/generate_simple_mixing_potential.xlsx
+++ b/potentials/smatb/generate_simple_mixing_potential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37938C12-06B3-4E7A-996E-4D8036BE6A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F096CF-2712-462E-854D-D01BADCC0E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="255" windowWidth="21240" windowHeight="14955" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
+    <workbookView xWindow="6090" yWindow="240" windowWidth="21240" windowHeight="14955" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>pair_coeff 1 1</t>
   </si>
@@ -153,29 +153,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R0 = p(A-B)/((p(A)/R0(A)+p(B)/R0(B))/2)= q(A-B)/((q(A)/R0(A)+q(B)/R0(B))/2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;- using "R0 = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q(A-B)/((q(A)/R0(A)+q(B)/R0(B))/2)"</t>
-    </r>
+    <t>R0 = ( p(A-B)/((p(A)/R0(A)+p(B)/R0(B))/2) + q(A-B)/((q(A)/R0(A)+q(B)/R0(B))/2) )/2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,10 +161,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,15 +185,6 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -257,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -375,24 +345,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,16 +406,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -776,7 +732,7 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -935,27 +891,29 @@
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="19" t="s">
         <v>26</v>
       </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="4"/>
       <c r="M12" t="s">
         <v>4</v>
@@ -965,9 +923,9 @@
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12">
-        <f>D13/((D5/C5+D9/C9)/2)</f>
-        <v>2.614319480351154</v>
+      <c r="C13" s="20">
+        <f>(D13/((D5/C5+D9/C9)/2)+E13/((E5/C5+E9/C9)/2))/2</f>
+        <v>2.6143194756908397</v>
       </c>
       <c r="D13" s="12">
         <f>(D5+D9)/2</f>
@@ -1009,20 +967,13 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19">
-        <f>E13/((E5/C5+E9/C9)/2)</f>
-        <v>2.6143194710305253</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
